--- a/02-Avancado1-Funcoes/10-ProfessorRespondidas/Aula-26-ExcelAvancado1-Lanhouse-FuncoesLogica.xlsx
+++ b/02-Avancado1-Funcoes/10-ProfessorRespondidas/Aula-26-ExcelAvancado1-Lanhouse-FuncoesLogica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3E32B8-433D-4DA0-BD18-0BFA15118A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A9E3B6-DE65-422C-B658-F68A5A17A15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,24 +485,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -513,6 +495,24 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1005,9 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
@@ -1028,119 +1026,119 @@
       <c r="A1" s="15"/>
     </row>
     <row r="2" spans="1:10" s="16" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" s="16" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" s="16" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" s="16" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" s="16" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" s="16" customFormat="1" ht="14.25"/>
     <row r="8" spans="1:10" ht="21">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="17">
         <v>10</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="24">
+      <c r="I9" s="26"/>
+      <c r="J9" s="18">
         <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:10"/>
     <row r="11" spans="1:10">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:10">
       <c r="C13" s="7"/>
@@ -1153,17 +1151,17 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="18.75">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:10"/>
     <row r="16" spans="1:10" ht="30">
@@ -1205,8 +1203,8 @@
       <c r="D17" s="6">
         <v>0.42013888888888901</v>
       </c>
-      <c r="E17" s="25">
-        <f>SUM(D17,-C17)</f>
+      <c r="E17" s="19">
+        <f>(D17-C17)</f>
         <v>4.5138888888889006E-2</v>
       </c>
       <c r="F17" s="8">
@@ -1221,11 +1219,11 @@
         <f>SUM(PRODUCT(F17,60),G17)</f>
         <v>65</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="21">
         <f>IF(HOUR(C17)&lt;12,((valor_hora-PRODUCT(valor_hora,desconto))/60),(valor_hora/60))</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="20">
         <f>PRODUCT(H17:I17)</f>
         <v>8.6666666666666661</v>
       </c>
@@ -1240,8 +1238,8 @@
       <c r="D18" s="6">
         <v>0.44930555555555601</v>
       </c>
-      <c r="E18" s="25">
-        <f t="shared" ref="E18:E23" si="0">SUM(D18,-C18)</f>
+      <c r="E18" s="19">
+        <f t="shared" ref="E18:E23" si="0">(D18-C18)</f>
         <v>2.7777777777778012E-2</v>
       </c>
       <c r="F18" s="8">
@@ -1256,11 +1254,11 @@
         <f t="shared" ref="H18:H23" si="3">SUM(PRODUCT(F18,60),G18)</f>
         <v>40</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="21">
         <f>IF(HOUR(C18)&lt;12,((valor_hora-PRODUCT(valor_hora,desconto))/60),(valor_hora/60))</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="20">
         <f t="shared" ref="J18:J23" si="4">PRODUCT(H18:I18)</f>
         <v>5.333333333333333</v>
       </c>
@@ -1275,7 +1273,7 @@
       <c r="D19" s="6">
         <v>0.47916666666666702</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="19">
         <f t="shared" si="0"/>
         <v>2.7777777777778012E-2</v>
       </c>
@@ -1291,11 +1289,11 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="21">
         <f>IF(HOUR(C19)&lt;12,((valor_hora-PRODUCT(valor_hora,desconto))/60),(valor_hora/60))</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="20">
         <f t="shared" si="4"/>
         <v>5.333333333333333</v>
       </c>
@@ -1310,7 +1308,7 @@
       <c r="D20" s="6">
         <v>0.50347222222222199</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="19">
         <f t="shared" si="0"/>
         <v>2.3611111111110972E-2</v>
       </c>
@@ -1326,11 +1324,11 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="21">
         <f>IF(HOUR(C20)&lt;12,((valor_hora-PRODUCT(valor_hora,desconto))/60),(valor_hora/60))</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="20">
         <f t="shared" si="4"/>
         <v>4.5333333333333332</v>
       </c>
@@ -1345,7 +1343,7 @@
       <c r="D21" s="6">
         <v>0.57291666666666696</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="19">
         <f t="shared" si="0"/>
         <v>6.805555555555598E-2</v>
       </c>
@@ -1361,11 +1359,11 @@
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="21">
         <f>IF(HOUR(C21)&lt;12,((valor_hora-PRODUCT(valor_hora,desconto))/60),(valor_hora/60))</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="20">
         <f t="shared" si="4"/>
         <v>16.333333333333332</v>
       </c>
@@ -1380,7 +1378,7 @@
       <c r="D22" s="6">
         <v>0.6875</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="19">
         <f t="shared" si="0"/>
         <v>0.11388888888888904</v>
       </c>
@@ -1396,11 +1394,11 @@
         <f t="shared" si="3"/>
         <v>164</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="21">
         <f>IF(HOUR(C22)&lt;12,((valor_hora-PRODUCT(valor_hora,desconto))/60),(valor_hora/60))</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="J22" s="26">
+      <c r="J22" s="20">
         <f t="shared" si="4"/>
         <v>27.333333333333332</v>
       </c>
@@ -1415,7 +1413,7 @@
       <c r="D23" s="6">
         <v>0.75</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="19">
         <f t="shared" si="0"/>
         <v>5.2083333333333037E-2</v>
       </c>
@@ -1431,11 +1429,11 @@
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="21">
         <f>IF(HOUR(C23)&lt;12,((valor_hora-PRODUCT(valor_hora,desconto))/60),(valor_hora/60))</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="20">
         <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
